--- a/simulation_data/iterative_algorithm/i_error_level_13_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_13_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.60945472411669</v>
+        <v>89.72405946572631</v>
       </c>
       <c r="D2" t="n">
-        <v>33.75818897895416</v>
+        <v>32.39209770198293</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.65070599063921</v>
+        <v>86.33953883487391</v>
       </c>
       <c r="D3" t="n">
-        <v>35.30878276045041</v>
+        <v>31.34795526428561</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>85.20865459936836</v>
+        <v>88.1979283479974</v>
       </c>
       <c r="D4" t="n">
-        <v>32.1408582988854</v>
+        <v>31.16279576751976</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.89683486163007</v>
+        <v>87.11047593564575</v>
       </c>
       <c r="D5" t="n">
-        <v>34.48880339628847</v>
+        <v>29.83267071203448</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.55277308289467</v>
+        <v>82.22633977168388</v>
       </c>
       <c r="D6" t="n">
-        <v>32.48873786750246</v>
+        <v>31.60154166713306</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.4322873543541</v>
+        <v>89.81124060278721</v>
       </c>
       <c r="D7" t="n">
-        <v>37.97402047299293</v>
+        <v>27.22910150226196</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.05088959879751</v>
+        <v>80.84871000493645</v>
       </c>
       <c r="D8" t="n">
-        <v>36.52356245303242</v>
+        <v>31.76105711670727</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.34992783046513</v>
+        <v>83.31804518425568</v>
       </c>
       <c r="D9" t="n">
-        <v>31.09481507803777</v>
+        <v>34.11072602853942</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>87.02380555019707</v>
+        <v>78.15822947880483</v>
       </c>
       <c r="D10" t="n">
-        <v>36.98282195260845</v>
+        <v>33.87776177581456</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.33064884190171</v>
+        <v>77.63865222093369</v>
       </c>
       <c r="D11" t="n">
-        <v>33.50874709737064</v>
+        <v>36.16230663028741</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>77.38258970968145</v>
+        <v>78.17095848319983</v>
       </c>
       <c r="D12" t="n">
-        <v>38.33136838513438</v>
+        <v>28.62034461093511</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.30904038860092</v>
+        <v>79.02681722986061</v>
       </c>
       <c r="D13" t="n">
-        <v>32.76961153292888</v>
+        <v>29.88844232113491</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.45843391672921</v>
+        <v>75.81024000160015</v>
       </c>
       <c r="D14" t="n">
-        <v>34.58365942124054</v>
+        <v>34.28805444908718</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>74.47447747720759</v>
+        <v>76.49088814226721</v>
       </c>
       <c r="D15" t="n">
-        <v>33.06774450804271</v>
+        <v>32.04557329490039</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.19789627385029</v>
+        <v>77.55667235322244</v>
       </c>
       <c r="D16" t="n">
-        <v>34.00340960298807</v>
+        <v>31.06958186074922</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>70.27354421610897</v>
+        <v>74.80187315698541</v>
       </c>
       <c r="D17" t="n">
-        <v>32.23556440771966</v>
+        <v>30.19969958085943</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>65.99396529873417</v>
+        <v>73.97746059477747</v>
       </c>
       <c r="D18" t="n">
-        <v>37.85296812397551</v>
+        <v>29.22590894285168</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>70.19775906727975</v>
+        <v>69.07514442449774</v>
       </c>
       <c r="D19" t="n">
-        <v>28.39440393834835</v>
+        <v>30.15000162472728</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.8173947456321</v>
+        <v>65.7883812315074</v>
       </c>
       <c r="D20" t="n">
-        <v>36.87216651019804</v>
+        <v>33.92220326970444</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>75.53901752576178</v>
+        <v>67.30445841545453</v>
       </c>
       <c r="D21" t="n">
-        <v>31.64609425453424</v>
+        <v>32.72223773878711</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22253436110124</v>
+        <v>71.50674913369268</v>
       </c>
       <c r="D22" t="n">
-        <v>31.8529669992914</v>
+        <v>34.19854447778732</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>76.28343535536057</v>
+        <v>67.31373614029032</v>
       </c>
       <c r="D23" t="n">
-        <v>36.58951258779656</v>
+        <v>31.27499352891859</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.9945563090985</v>
+        <v>63.97356039544222</v>
       </c>
       <c r="D24" t="n">
-        <v>34.45239261498745</v>
+        <v>31.2594722650009</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.35370280796415</v>
+        <v>65.87971047917641</v>
       </c>
       <c r="D25" t="n">
-        <v>30.80930945236211</v>
+        <v>33.85900248670486</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>61.70642398362094</v>
+        <v>64.53983870996031</v>
       </c>
       <c r="D26" t="n">
-        <v>32.77954353743542</v>
+        <v>33.17410209566823</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>60.33546489935043</v>
+        <v>63.771163866332</v>
       </c>
       <c r="D27" t="n">
-        <v>29.75257689188666</v>
+        <v>27.5972024265673</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.47109346549858</v>
+        <v>60.49436717276968</v>
       </c>
       <c r="D28" t="n">
-        <v>29.44170507758509</v>
+        <v>32.11356000175525</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>57.49167390433649</v>
+        <v>61.96476685342369</v>
       </c>
       <c r="D29" t="n">
-        <v>31.32245590380079</v>
+        <v>29.49103174730714</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>58.57565732360572</v>
+        <v>56.24633717196217</v>
       </c>
       <c r="D30" t="n">
-        <v>38.26612639078285</v>
+        <v>34.45511060204879</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.72123097968777</v>
+        <v>64.3284446260169</v>
       </c>
       <c r="D31" t="n">
-        <v>33.52395763492036</v>
+        <v>31.77463166450047</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>56.41304424020961</v>
+        <v>57.74257128943541</v>
       </c>
       <c r="D32" t="n">
-        <v>33.2740554404754</v>
+        <v>26.7416961521963</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>56.33357525927045</v>
+        <v>58.07137083145565</v>
       </c>
       <c r="D33" t="n">
-        <v>33.77845390182836</v>
+        <v>32.9519057058363</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.60667714604858</v>
+        <v>59.43735011291542</v>
       </c>
       <c r="D34" t="n">
-        <v>32.8012073751464</v>
+        <v>34.67455040125364</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.67246425982093</v>
+        <v>60.28239266756847</v>
       </c>
       <c r="D35" t="n">
-        <v>30.92307934504609</v>
+        <v>34.54282587715982</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.35588711975183</v>
+        <v>59.45159194318473</v>
       </c>
       <c r="D36" t="n">
-        <v>29.2762661017795</v>
+        <v>35.61871226346854</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>52.66454741803055</v>
+        <v>51.87581682258102</v>
       </c>
       <c r="D37" t="n">
-        <v>31.52989028071113</v>
+        <v>32.98585870799677</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>57.59208539748724</v>
+        <v>58.60085117282727</v>
       </c>
       <c r="D38" t="n">
-        <v>35.3485184727119</v>
+        <v>30.55094556357771</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.76173539929622</v>
+        <v>52.83863747132285</v>
       </c>
       <c r="D39" t="n">
-        <v>33.73431827929141</v>
+        <v>32.29695484260777</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>55.45299094021291</v>
+        <v>49.47595219219374</v>
       </c>
       <c r="D40" t="n">
-        <v>32.90026738914708</v>
+        <v>32.98648775951202</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>45.04959326255497</v>
+        <v>52.40368446180401</v>
       </c>
       <c r="D41" t="n">
-        <v>33.14705024205306</v>
+        <v>34.65117140501022</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.88777040982231</v>
+        <v>54.17984889103406</v>
       </c>
       <c r="D42" t="n">
-        <v>28.56897013282311</v>
+        <v>33.44241432866627</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.72120864067752</v>
+        <v>50.69145580223963</v>
       </c>
       <c r="D43" t="n">
-        <v>31.52076160529854</v>
+        <v>30.70429352893273</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.61803708325161</v>
+        <v>46.66356863232934</v>
       </c>
       <c r="D44" t="n">
-        <v>34.86797829805922</v>
+        <v>32.03733676093577</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.40840744410742</v>
+        <v>49.81927952044011</v>
       </c>
       <c r="D45" t="n">
-        <v>30.58845738481057</v>
+        <v>32.63281438191968</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>43.38376965509907</v>
+        <v>43.54798888934108</v>
       </c>
       <c r="D46" t="n">
-        <v>33.78721310340136</v>
+        <v>33.47760227046852</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.13771731224632</v>
+        <v>46.07396507577808</v>
       </c>
       <c r="D47" t="n">
-        <v>36.56337551553445</v>
+        <v>33.505693684109</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.91572957472996</v>
+        <v>45.48611515856818</v>
       </c>
       <c r="D48" t="n">
-        <v>34.88448519383002</v>
+        <v>35.46053172678889</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>39.93349551673533</v>
+        <v>42.41683508422608</v>
       </c>
       <c r="D49" t="n">
-        <v>37.88579671059868</v>
+        <v>31.82868400481324</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.84375223525857</v>
+        <v>40.93082073683973</v>
       </c>
       <c r="D50" t="n">
-        <v>33.71843486307596</v>
+        <v>33.80350467694792</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>33.97180973007094</v>
+        <v>37.16748043675064</v>
       </c>
       <c r="D51" t="n">
-        <v>36.41356789028877</v>
+        <v>36.1187639785706</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>43.94708455265685</v>
+        <v>41.33879107972292</v>
       </c>
       <c r="D52" t="n">
-        <v>34.78931650343109</v>
+        <v>33.25424678003902</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>42.09468757541012</v>
+        <v>36.76152267117297</v>
       </c>
       <c r="D53" t="n">
-        <v>33.82739262091518</v>
+        <v>33.41076629821368</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>34.22947638777248</v>
+        <v>38.45556054188367</v>
       </c>
       <c r="D54" t="n">
-        <v>34.59566116114837</v>
+        <v>33.08594169093903</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.49720935517043</v>
+        <v>40.13874542398331</v>
       </c>
       <c r="D55" t="n">
-        <v>28.70971995471249</v>
+        <v>36.61182089633326</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.86279741115513</v>
+        <v>36.0244041183375</v>
       </c>
       <c r="D56" t="n">
-        <v>33.33813328930331</v>
+        <v>29.80918895395876</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>38.8002279911431</v>
+        <v>36.44430131542304</v>
       </c>
       <c r="D57" t="n">
-        <v>30.89910352052764</v>
+        <v>32.7685448571616</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.66156933647805</v>
+        <v>30.52605557742076</v>
       </c>
       <c r="D58" t="n">
-        <v>27.17880690747072</v>
+        <v>35.83120324418902</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.84308762385813</v>
+        <v>28.57059639511926</v>
       </c>
       <c r="D59" t="n">
-        <v>35.74456264572331</v>
+        <v>36.61277057383965</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>28.72458981496797</v>
+        <v>25.96389830814757</v>
       </c>
       <c r="D60" t="n">
-        <v>34.82338446153227</v>
+        <v>32.82674382068189</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.58105281544646</v>
+        <v>34.81639511197529</v>
       </c>
       <c r="D61" t="n">
-        <v>33.6932691189303</v>
+        <v>29.306271818842</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.50792180451419</v>
+        <v>30.92281829720498</v>
       </c>
       <c r="D62" t="n">
-        <v>32.9717772992002</v>
+        <v>33.56596037395702</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.36398321409269</v>
+        <v>23.52002746177854</v>
       </c>
       <c r="D63" t="n">
-        <v>33.05886226676441</v>
+        <v>31.18834518267587</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.46875714257508</v>
+        <v>28.63074373716726</v>
       </c>
       <c r="D64" t="n">
-        <v>37.46622455104056</v>
+        <v>33.21962125883926</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.15941466947282</v>
+        <v>33.02663960605125</v>
       </c>
       <c r="D65" t="n">
-        <v>30.92130709450539</v>
+        <v>32.08931676970787</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.04576872805959</v>
+        <v>21.64323748213849</v>
       </c>
       <c r="D66" t="n">
-        <v>36.65183454566355</v>
+        <v>29.72581126634293</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>20.86448052363207</v>
+        <v>25.10126087587002</v>
       </c>
       <c r="D67" t="n">
-        <v>34.89542959486066</v>
+        <v>34.46557353391289</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.23652707853375</v>
+        <v>29.07562338235826</v>
       </c>
       <c r="D68" t="n">
-        <v>28.39022126629552</v>
+        <v>30.27217051559989</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>26.93325394317042</v>
+        <v>23.82856323412652</v>
       </c>
       <c r="D69" t="n">
-        <v>32.78672929733687</v>
+        <v>32.52836518668521</v>
       </c>
     </row>
   </sheetData>
